--- a/biology/Zoologie/Cyrtopodion/Cyrtopodion.xlsx
+++ b/biology/Zoologie/Cyrtopodion/Cyrtopodion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtopodion est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtopodion est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 25 espèces de ce genre se rencontrent dans le sud-ouest de l'Asie et dans l'est de l'Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 25 espèces de ce genre se rencontrent dans le sud-ouest de l'Asie et dans l'est de l'Afrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et terrestres. La plupart sont beige, gris ou brun, souvent avec des bandes transversales.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 décembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 décembre 2023) :
 Cyrtopodion agamuroides (Nikolsky, 1900)
 Cyrtopodion aravallensis Gill, 1997
 Cyrtopodion baigii Masroor, 2008
@@ -599,7 +617,7 @@
 Cyrtopodion rohtasfortai (Khan &amp; Tasnim, 1990)
 Cyrtopodion scabrum (Heyden, 1827)
 Cyrtopodion sistanense Nazarov &amp; Rajabizadeh, 2007
-Cyrtopodion vindhya Patel et al., 2023[3]
+Cyrtopodion vindhya Patel et al., 2023
 Cyrtopodion watsoni (Murray, 1892)</t>
         </is>
       </c>
@@ -628,9 +646,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nom vient du grec κνρτοσ, « courbé », et ποδος, « pieds », soit « aux pieds courbés »[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nom vient du grec κνρτοσ, « courbé », et ποδος, « pieds », soit « aux pieds courbés ».
 </t>
         </is>
       </c>
@@ -659,7 +679,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
